--- a/medicine/Pharmacie/Canella_winterana/Canella_winterana.xlsx
+++ b/medicine/Pharmacie/Canella_winterana/Canella_winterana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canella winterana est l'unique espèce du genre Canella de la famille des Canellaceae.
 C'est un grand arbuste aromatique, des Caraïbes, aux petites fleurs rouge fraise, plus communément appelé dans des Antilles françaises Bois-Cannelle ou Bwa kannèl, Kannèl a pis, Kannèl bata en créole.
@@ -512,7 +524,9 @@
           <t>Description[1],[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbuste qui peut atteindre la taille d'un petit arbre, de 4 à 15 m, avec une écorce grise, aromatique, des branches nombreuses très feuillues. Toute la plante est aromatique et évoque l'odeur de cassis mais il ne faut pas la confondre avec le vrai cannelier (Cinnamomum).
 Les feuilles sont alternes, obovales ou oblancéolées, coriaces, vert foncé, parsemées de glandes translucides. La face supérieure est d'un vert foncé brillant, la face inférieure plus claire et mate.
@@ -552,7 +566,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois-Canelle est originaire des Grandes et Petites Antilles et du sud de la Floride. Il a été introduit au Brésil et au Venezuela.
 C'est un arbuste des forêts sèches du littoral sableux et des mornes littoraux calcaires.
@@ -585,12 +601,14 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les parties de la plante sont aromatiques, mais c'est surtout dans l'écorce que résident les propriétés toniques et stimulantes[2].
-En effet, des études réalisées sur les feuilles et l'écorce de l'arbre ont montré la présence de nombreux composés dont les sesquiterpènes dialdéhydes de structure drimane[3],[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de la plante sont aromatiques, mais c'est surtout dans l'écorce que résident les propriétés toniques et stimulantes.
+En effet, des études réalisées sur les feuilles et l'écorce de l'arbre ont montré la présence de nombreux composés dont les sesquiterpènes dialdéhydes de structure drimane,
 . Ces composés possèdent de nombreuses propriétés insecticides et fongicides. Les propriétés aromatiques sont dues à des essences aromatiques comme l'eugénol.
-À Porto Rico, on se servait d'extraits de l'écorce comme poison pour la pêche. L'écorce séchée et moulue a été utilisée comme succédané de la cannelle. Mais son usage principal est médicinal : on fabrique avec l'écorce une poudre blanche, « la cannelle blanche », utilisée comme antiscorbutique, stimulant et fortifiant[5].
+À Porto Rico, on se servait d'extraits de l'écorce comme poison pour la pêche. L'écorce séchée et moulue a été utilisée comme succédané de la cannelle. Mais son usage principal est médicinal : on fabrique avec l'écorce une poudre blanche, « la cannelle blanche », utilisée comme antiscorbutique, stimulant et fortifiant.
 Les baies séchées et broyées servent d'épices dans les Caraïbes. Elles sont aussi brûlantes que le poivre noir.
 </t>
         </is>
@@ -620,7 +638,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Canella alba Murray
 Laurus winterana L.
